--- a/Sogang_AI_MBA_PythonProj/Practicom/Todo List.xlsx
+++ b/Sogang_AI_MBA_PythonProj/Practicom/Todo List.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F59242-8C93-401A-95FA-B45E8F3BE3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F7B816-8346-407B-A698-BBA7218E29C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="할일" sheetId="1" r:id="rId1"/>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>업무리스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -498,6 +498,22 @@
       </rPr>
       <t>까지 적용해보고 안되면 포기. 자료정리하여 6/20 최종보고서 제출</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김은희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정주연/김영빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김우영</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -881,13 +897,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1080,7 +1096,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -1099,17 +1115,20 @@
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="18" fillId="33" borderId="0" xfId="15" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="18" fillId="34" borderId="0" xfId="15" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="18" fillId="34" borderId="0" xfId="15" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -1836,15 +1855,15 @@
   <dimension ref="B1:E20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.58203125" customWidth="1"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="2" width="44.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="115.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="3" customWidth="1"/>
     <col min="5" max="5" width="100.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1869,7 +1888,9 @@
       <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="E2" s="2" t="str">
         <f>IFERROR(IF(ISBLANK(#REF!),"",D2+#REF!), "")</f>
         <v/>
@@ -1882,7 +1903,9 @@
       <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1894,7 +1917,9 @@
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="10" t="s">
+        <v>34</v>
+      </c>
       <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1906,7 +1931,9 @@
       <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="E5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1918,7 +1945,9 @@
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="10" t="s">
+        <v>34</v>
+      </c>
       <c r="E6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1930,7 +1959,9 @@
       <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="E7" s="2" t="str">
         <f>IFERROR(IF(ISBLANK(#REF!),"",D7+#REF!), "")</f>
         <v/>
@@ -1981,52 +2012,52 @@
       <c r="E11" s="3"/>
     </row>
     <row r="13" spans="2:5" ht="30" customHeight="1">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="8"/>
+      <c r="C13" s="7"/>
     </row>
     <row r="14" spans="2:5" ht="30" customHeight="1">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="7"/>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="2:5" ht="30" customHeight="1">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="7"/>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="2:5" ht="30" customHeight="1">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="7"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" spans="2:3" ht="30" customHeight="1">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="7"/>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" spans="2:3" ht="30" customHeight="1">
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="7"/>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" spans="2:3" ht="30" customHeight="1">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="9"/>
+      <c r="C19" s="8"/>
     </row>
     <row r="20" spans="2:3" ht="30" customHeight="1">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="7"/>
+      <c r="C20" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Sogang_AI_MBA_PythonProj/Practicom/Todo List.xlsx
+++ b/Sogang_AI_MBA_PythonProj/Practicom/Todo List.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F7B816-8346-407B-A698-BBA7218E29C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11429B8C-023B-43BC-B0F8-7384C1FEA01F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="할일" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">할일!$B$1:$D$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">할일!$B$1:$D$11</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">할일!$1:$1</definedName>
     <definedName name="제목1">MeetingData[[#Headers],[업무리스트]]</definedName>
     <definedName name="행제목영역1..C6">할일!#REF!</definedName>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>업무리스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,10 +139,6 @@
   </si>
   <si>
     <t>비고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>필수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -164,12 +160,6 @@
   <si>
     <t>https://www.youtube.com/watch?v=P4OevrwTq78
 https://github.com/bnsreenu/python_for_microscopists/blob/master/239_train_emotion_detection/239_train_emotion_detection.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>class_labels=['Angry','Disgust', 'Fear', 'Happy','Neutral','Sad','Surprise'] 
-이외에 감정사진 수집 및 추가하기
-- 헬스의 중요 요소는 운동시 한계까지 힘을 써야 함=&gt; 얼굴에 힘들다는 표정이 생길 수 밖에 없음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -505,15 +495,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정주연/김영빈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김우영</t>
+    <t>정주연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김우영/
+김영빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이태환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트로 문장 감성 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bert를 사용하여 모델 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정확도 60~70%/사용시 검증된 문장만 시연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI HUB에서 사람 이미지를 다운로드 후 mediapipe를 이용하여 좌표 추출 후 yolo로 모델로 finetunning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI HUB에서 사람 이미지를 다운로드 후 labelme로 라벨 추출 후, yolo로 모델로 finetunning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI HUB에서 사람 이미지를 다운로드 후 labelme로 라벨 추출 후, yolo로 모델로 finetunning
+class_labels=['Angry','Disgust', 'Fear', 'Happy','Neutral','Sad','Surprise'] 
+이외에 감정사진 수집 및 추가하기
+- 헬스의 중요 요소는 운동시 한계까지 힘을 써야 함=&gt; 얼굴에 힘들다는 표정이 생길 수 밖에 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표 및 질의응답 가능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1096,7 +1122,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -1115,6 +1141,12 @@
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="18" fillId="34" borderId="0" xfId="15" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="18" fillId="34" borderId="0" xfId="15" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1124,10 +1156,10 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="18" fillId="34" borderId="0" xfId="15" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="18" fillId="34" borderId="0" xfId="15" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="18" fillId="34" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1540,8 +1572,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="MeetingData" displayName="MeetingData" ref="B1:E11" totalsRowCount="1" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8">
-  <autoFilter ref="B1:E10" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="MeetingData" displayName="MeetingData" ref="B1:E12" totalsRowCount="1" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8">
+  <autoFilter ref="B1:E11" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="업무리스트" totalsRowLabel="기간" dataDxfId="7" totalsRowDxfId="3" dataCellStyle="시작/종료 시간">
       <calculatedColumnFormula>IF(ISBLANK(D1),"",D1)</calculatedColumnFormula>
@@ -1852,18 +1884,18 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:E20"/>
+  <dimension ref="B1:E21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="1" max="1" width="2.58203125" customWidth="1"/>
     <col min="2" max="2" width="44.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="115.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="3" customWidth="1"/>
     <col min="5" max="5" width="100.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1872,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1886,192 +1918,205 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="E2" s="2" t="str">
         <f>IFERROR(IF(ISBLANK(#REF!),"",D2+#REF!), "")</f>
         <v/>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="75.75" customHeight="1">
+    <row r="3" spans="2:5" ht="105.5" customHeight="1">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>35</v>
+        <v>9</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="30" customHeight="1">
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>34</v>
+        <v>8</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="30" customHeight="1">
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="2:5" ht="30" customHeight="1">
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="30" customHeight="1">
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="2" t="str">
-        <f>IFERROR(IF(ISBLANK(#REF!),"",D7+#REF!), "")</f>
-        <v/>
+        <v>13</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="30" customHeight="1">
-      <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="2" t="str">
-        <f>IFERROR(IF(ISBLANK(#REF!),"",D8+#REF!), "")</f>
-        <v/>
+      <c r="B8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="30" customHeight="1">
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="E9" s="2" t="str">
+        <f>IFERROR(IF(ISBLANK(#REF!),"",D9+#REF!), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="10" spans="2:5" ht="30" customHeight="1">
       <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="2:5" ht="30" customHeight="1">
-      <c r="B11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="13" spans="2:5" ht="30" customHeight="1">
-      <c r="B13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="7"/>
+    <row r="12" spans="2:5" ht="30" customHeight="1">
+      <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="3"/>
     </row>
     <row r="14" spans="2:5" ht="30" customHeight="1">
-      <c r="B14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="6"/>
+      <c r="B14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="9"/>
     </row>
     <row r="15" spans="2:5" ht="30" customHeight="1">
-      <c r="B15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="6"/>
+      <c r="B15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="8"/>
     </row>
     <row r="16" spans="2:5" ht="30" customHeight="1">
-      <c r="B16" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="6"/>
+      <c r="B16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="8"/>
     </row>
     <row r="17" spans="2:3" ht="30" customHeight="1">
-      <c r="B17" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="6"/>
+      <c r="B17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="8"/>
     </row>
     <row r="18" spans="2:3" ht="30" customHeight="1">
-      <c r="B18" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="6"/>
+      <c r="B18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="8"/>
     </row>
     <row r="19" spans="2:3" ht="30" customHeight="1">
       <c r="B19" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C19" s="8"/>
     </row>
     <row r="20" spans="2:3" ht="30" customHeight="1">
-      <c r="B20" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="6"/>
+      <c r="B20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="10"/>
+    </row>
+    <row r="21" spans="2:3" ht="30" customHeight="1">
+      <c r="B21" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations xWindow="52" yWindow="286" count="2">
+  <dataValidations disablePrompts="1" xWindow="52" yWindow="286" count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 시작 시간을 입력합니다. 특정 항목을 찾으려면 머리글 필터를 사용하세요." sqref="B1:C1" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 종료 시간이 자동으로 계산됩니다." sqref="D1:E1" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
   </dataValidations>
